--- a/Assignment/data.xlsx
+++ b/Assignment/data.xlsx
@@ -1227,7 +1227,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1236,24 +1236,46 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="0" t="inlineStr">
         <is>
           <t>T.Venkateshwar Reddy</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="0" t="inlineStr">
         <is>
           <t>tvr22@gmail.com</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="0" t="inlineStr">
         <is>
           <t>7832292929</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="0" t="inlineStr">
         <is>
           <t>Engineering</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yogesh </t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>mysc@gmail.com</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>8821232211</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Degree</t>
         </is>
       </c>
     </row>

--- a/Assignment/data.xlsx
+++ b/Assignment/data.xlsx
@@ -1,182 +1,211 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="19635" windowHeight="7080" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView windowWidth="19635" windowHeight="7530"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t xml:space="preserve">Name </t>
+  </si>
+  <si>
+    <t>Email ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone Number </t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>Manne Yogesh</t>
+  </si>
+  <si>
+    <t>mysc@gmail.com</t>
+  </si>
+  <si>
+    <t>9921232567</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -476,158 +505,159 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -873,7 +903,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -882,7 +912,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -895,74 +925,11 @@
       <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1222,64 +1189,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="17.8571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7142857142857" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1428571428571" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7142857142857" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>T.Venkateshwar Reddy</t>
-        </is>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" s="0" t="inlineStr">
-        <is>
-          <t>tvr22@gmail.com</t>
-        </is>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
-      <c r="C1" s="0" t="inlineStr">
-        <is>
-          <t>7832292929</t>
-        </is>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
-      <c r="D1" s="0" t="inlineStr">
-        <is>
-          <t>Engineering</t>
-        </is>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Yogesh </t>
-        </is>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>mysc@gmail.com</t>
-        </is>
+      <c r="B2" t="s">
+        <v>5</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>8821232211</t>
-        </is>
+      <c r="C2" t="s">
+        <v>6</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Degree</t>
-        </is>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Assignment/data.xlsx
+++ b/Assignment/data.xlsx
@@ -1,211 +1,182 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7530"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="19635" windowHeight="7530" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t xml:space="preserve">Name </t>
-  </si>
-  <si>
-    <t>Email ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phone Number </t>
-  </si>
-  <si>
-    <t>Branch</t>
-  </si>
-  <si>
-    <t>Manne Yogesh</t>
-  </si>
-  <si>
-    <t>mysc@gmail.com</t>
-  </si>
-  <si>
-    <t>9921232567</t>
-  </si>
-  <si>
-    <t>Engineering</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -505,159 +476,159 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -903,7 +874,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -912,7 +883,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -925,11 +896,74 @@
       <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1189,52 +1223,180 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="17.8571428571429" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7142857142857" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.1428571428571" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7142857142857" style="1" customWidth="1"/>
+    <col width="17.8571428571429" customWidth="1" style="1" min="1" max="1"/>
+    <col width="20.7142857142857" customWidth="1" style="1" min="2" max="2"/>
+    <col width="18.1428571428571" customWidth="1" style="1" min="3" max="3"/>
+    <col width="17.7142857142857" customWidth="1" style="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Name </t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>Email ID</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phone Number </t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>Manne Yogesh</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>mysc@gmail.com</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>9921232567</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>T. Venkateshwar Reddy</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>venki22@gmail.com</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>8923567112</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>Medical</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>Kunal Shah</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>kunal@outlook.com</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>7834560012</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>Degree</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>Sunil N</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>N.Sunil@gmail.com</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>8845332091</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>Jayvardhan K</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>kjr@gmail.com</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>9492610991</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>Degree</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Jayvardhan K</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>kjr@gmail.com</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>9492610991</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Medical</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Assignment/data.xlsx
+++ b/Assignment/data.xlsx
@@ -1228,7 +1228,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -1375,22 +1375,110 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="0" t="inlineStr">
         <is>
           <t>Jayvardhan K</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="0" t="inlineStr">
         <is>
           <t>kjr@gmail.com</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="0" t="inlineStr">
         <is>
           <t>9492610991</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>Medical</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Harsha Vardhan </t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>Harsha@outlook.com</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>7382310003</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>Mayur</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>mayur@gmail.com</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>7658901234</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>Devaj M</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>devaj@outlook.com</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>7382314561</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>Degree</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Ranjan Mishra</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>mishra.ranjan@yahoo.in</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>9332567824</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>Medical</t>
         </is>

--- a/Assignment/data.xlsx
+++ b/Assignment/data.xlsx
@@ -1228,7 +1228,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -1463,22 +1463,88 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="0" t="inlineStr">
         <is>
           <t>Ranjan Mishra</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="0" t="inlineStr">
         <is>
           <t>mishra.ranjan@yahoo.in</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="0" t="inlineStr">
         <is>
           <t>9332567824</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>Medical</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bhubaneshwar Jha </t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>jha@gmail.com</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>7332456721</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>Degree</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>M.Yogesh</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>mysc@gmail.com</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>7382410987</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>Medical</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>M.Yogesh</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>mysc@gmail.com</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>7382410987</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>Medical</t>
         </is>

--- a/Assignment/data.xlsx
+++ b/Assignment/data.xlsx
@@ -1,182 +1,313 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="19635" windowHeight="7530" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView windowWidth="19635" windowHeight="7530"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
+  <si>
+    <t xml:space="preserve">Name </t>
+  </si>
+  <si>
+    <t>Email ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone Number </t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>Manne Yogesh</t>
+  </si>
+  <si>
+    <t>mysc@gmail.com</t>
+  </si>
+  <si>
+    <t>9921232567</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>T. Venkateshwar Reddy</t>
+  </si>
+  <si>
+    <t>venki22@gmail.com</t>
+  </si>
+  <si>
+    <t>8923567112</t>
+  </si>
+  <si>
+    <t>Medical</t>
+  </si>
+  <si>
+    <t>Kunal Shah</t>
+  </si>
+  <si>
+    <t>kunal@outlook.com</t>
+  </si>
+  <si>
+    <t>7834560012</t>
+  </si>
+  <si>
+    <t>Degree</t>
+  </si>
+  <si>
+    <t>Sunil N</t>
+  </si>
+  <si>
+    <t>N.Sunil@gmail.com</t>
+  </si>
+  <si>
+    <t>8845332091</t>
+  </si>
+  <si>
+    <t>Jayvardhan K</t>
+  </si>
+  <si>
+    <t>kjr@gmail.com</t>
+  </si>
+  <si>
+    <t>9492610991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harsha Vardhan </t>
+  </si>
+  <si>
+    <t>Harsha@outlook.com</t>
+  </si>
+  <si>
+    <t>7382310003</t>
+  </si>
+  <si>
+    <t>Mayur</t>
+  </si>
+  <si>
+    <t>mayur@gmail.com</t>
+  </si>
+  <si>
+    <t>7658901234</t>
+  </si>
+  <si>
+    <t>Devaj M</t>
+  </si>
+  <si>
+    <t>devaj@outlook.com</t>
+  </si>
+  <si>
+    <t>7382314561</t>
+  </si>
+  <si>
+    <t>Ranjan Mishra</t>
+  </si>
+  <si>
+    <t>mishra.ranjan@yahoo.in</t>
+  </si>
+  <si>
+    <t>9332567824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhubaneshwar Jha </t>
+  </si>
+  <si>
+    <t>jha@gmail.com</t>
+  </si>
+  <si>
+    <t>7332456721</t>
+  </si>
+  <si>
+    <t>M.Yogesh</t>
+  </si>
+  <si>
+    <t>7382410987</t>
+  </si>
+  <si>
+    <t>Brijpal Singh</t>
+  </si>
+  <si>
+    <t>singh.brijpal@yahoo.com</t>
+  </si>
+  <si>
+    <t>7668934521</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -476,159 +607,159 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -874,7 +1005,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -883,7 +1014,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -896,74 +1027,11 @@
       <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1223,334 +1291,234 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col width="17.8571428571429" customWidth="1" style="1" min="1" max="1"/>
-    <col width="20.7142857142857" customWidth="1" style="1" min="2" max="2"/>
-    <col width="18.1428571428571" customWidth="1" style="1" min="3" max="3"/>
-    <col width="17.7142857142857" customWidth="1" style="1" min="4" max="4"/>
+    <col min="1" max="1" width="25.2857142857143" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.4285714285714" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.8571428571429" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7142857142857" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Name </t>
-        </is>
-      </c>
-      <c r="B1" s="0" t="inlineStr">
-        <is>
-          <t>Email ID</t>
-        </is>
-      </c>
-      <c r="C1" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phone Number </t>
-        </is>
-      </c>
-      <c r="D1" s="0" t="inlineStr">
-        <is>
-          <t>Branch</t>
-        </is>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>Manne Yogesh</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>mysc@gmail.com</t>
-        </is>
-      </c>
-      <c r="C2" s="0" t="inlineStr">
-        <is>
-          <t>9921232567</t>
-        </is>
-      </c>
-      <c r="D2" s="0" t="inlineStr">
-        <is>
-          <t>Engineering</t>
-        </is>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="inlineStr">
-        <is>
-          <t>T. Venkateshwar Reddy</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>venki22@gmail.com</t>
-        </is>
-      </c>
-      <c r="C3" s="0" t="inlineStr">
-        <is>
-          <t>8923567112</t>
-        </is>
-      </c>
-      <c r="D3" s="0" t="inlineStr">
-        <is>
-          <t>Medical</t>
-        </is>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="inlineStr">
-        <is>
-          <t>Kunal Shah</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>kunal@outlook.com</t>
-        </is>
-      </c>
-      <c r="C4" s="0" t="inlineStr">
-        <is>
-          <t>7834560012</t>
-        </is>
-      </c>
-      <c r="D4" s="0" t="inlineStr">
-        <is>
-          <t>Degree</t>
-        </is>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t>Sunil N</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>N.Sunil@gmail.com</t>
-        </is>
-      </c>
-      <c r="C5" s="0" t="inlineStr">
-        <is>
-          <t>8845332091</t>
-        </is>
-      </c>
-      <c r="D5" s="0" t="inlineStr">
-        <is>
-          <t>Engineering</t>
-        </is>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="0" t="inlineStr">
-        <is>
-          <t>Jayvardhan K</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>kjr@gmail.com</t>
-        </is>
-      </c>
-      <c r="C6" s="0" t="inlineStr">
-        <is>
-          <t>9492610991</t>
-        </is>
-      </c>
-      <c r="D6" s="0" t="inlineStr">
-        <is>
-          <t>Degree</t>
-        </is>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>Jayvardhan K</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>kjr@gmail.com</t>
-        </is>
-      </c>
-      <c r="C7" s="0" t="inlineStr">
-        <is>
-          <t>9492610991</t>
-        </is>
-      </c>
-      <c r="D7" s="0" t="inlineStr">
-        <is>
-          <t>Medical</t>
-        </is>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Harsha Vardhan </t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t>Harsha@outlook.com</t>
-        </is>
-      </c>
-      <c r="C8" s="0" t="inlineStr">
-        <is>
-          <t>7382310003</t>
-        </is>
-      </c>
-      <c r="D8" s="0" t="inlineStr">
-        <is>
-          <t>Engineering</t>
-        </is>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="0" t="inlineStr">
-        <is>
-          <t>Mayur</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>mayur@gmail.com</t>
-        </is>
-      </c>
-      <c r="C9" s="0" t="inlineStr">
-        <is>
-          <t>7658901234</t>
-        </is>
-      </c>
-      <c r="D9" s="0" t="inlineStr">
-        <is>
-          <t>Engineering</t>
-        </is>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="0" t="inlineStr">
-        <is>
-          <t>Devaj M</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t>devaj@outlook.com</t>
-        </is>
-      </c>
-      <c r="C10" s="0" t="inlineStr">
-        <is>
-          <t>7382314561</t>
-        </is>
-      </c>
-      <c r="D10" s="0" t="inlineStr">
-        <is>
-          <t>Degree</t>
-        </is>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="0" t="inlineStr">
-        <is>
-          <t>Ranjan Mishra</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>mishra.ranjan@yahoo.in</t>
-        </is>
-      </c>
-      <c r="C11" s="0" t="inlineStr">
-        <is>
-          <t>9332567824</t>
-        </is>
-      </c>
-      <c r="D11" s="0" t="inlineStr">
-        <is>
-          <t>Medical</t>
-        </is>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bhubaneshwar Jha </t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t>jha@gmail.com</t>
-        </is>
-      </c>
-      <c r="C12" s="0" t="inlineStr">
-        <is>
-          <t>7332456721</t>
-        </is>
-      </c>
-      <c r="D12" s="0" t="inlineStr">
-        <is>
-          <t>Degree</t>
-        </is>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="0" t="inlineStr">
-        <is>
-          <t>M.Yogesh</t>
-        </is>
-      </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t>mysc@gmail.com</t>
-        </is>
-      </c>
-      <c r="C13" s="0" t="inlineStr">
-        <is>
-          <t>7382410987</t>
-        </is>
-      </c>
-      <c r="D13" s="0" t="inlineStr">
-        <is>
-          <t>Medical</t>
-        </is>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>M.Yogesh</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>mysc@gmail.com</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>7382410987</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Medical</t>
-        </is>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Assignment/data.xlsx
+++ b/Assignment/data.xlsx
@@ -1,313 +1,182 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7530"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="19635" windowHeight="7530" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
-  <si>
-    <t xml:space="preserve">Name </t>
-  </si>
-  <si>
-    <t>Email ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phone Number </t>
-  </si>
-  <si>
-    <t>Branch</t>
-  </si>
-  <si>
-    <t>Manne Yogesh</t>
-  </si>
-  <si>
-    <t>mysc@gmail.com</t>
-  </si>
-  <si>
-    <t>9921232567</t>
-  </si>
-  <si>
-    <t>Engineering</t>
-  </si>
-  <si>
-    <t>T. Venkateshwar Reddy</t>
-  </si>
-  <si>
-    <t>venki22@gmail.com</t>
-  </si>
-  <si>
-    <t>8923567112</t>
-  </si>
-  <si>
-    <t>Medical</t>
-  </si>
-  <si>
-    <t>Kunal Shah</t>
-  </si>
-  <si>
-    <t>kunal@outlook.com</t>
-  </si>
-  <si>
-    <t>7834560012</t>
-  </si>
-  <si>
-    <t>Degree</t>
-  </si>
-  <si>
-    <t>Sunil N</t>
-  </si>
-  <si>
-    <t>N.Sunil@gmail.com</t>
-  </si>
-  <si>
-    <t>8845332091</t>
-  </si>
-  <si>
-    <t>Jayvardhan K</t>
-  </si>
-  <si>
-    <t>kjr@gmail.com</t>
-  </si>
-  <si>
-    <t>9492610991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harsha Vardhan </t>
-  </si>
-  <si>
-    <t>Harsha@outlook.com</t>
-  </si>
-  <si>
-    <t>7382310003</t>
-  </si>
-  <si>
-    <t>Mayur</t>
-  </si>
-  <si>
-    <t>mayur@gmail.com</t>
-  </si>
-  <si>
-    <t>7658901234</t>
-  </si>
-  <si>
-    <t>Devaj M</t>
-  </si>
-  <si>
-    <t>devaj@outlook.com</t>
-  </si>
-  <si>
-    <t>7382314561</t>
-  </si>
-  <si>
-    <t>Ranjan Mishra</t>
-  </si>
-  <si>
-    <t>mishra.ranjan@yahoo.in</t>
-  </si>
-  <si>
-    <t>9332567824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bhubaneshwar Jha </t>
-  </si>
-  <si>
-    <t>jha@gmail.com</t>
-  </si>
-  <si>
-    <t>7332456721</t>
-  </si>
-  <si>
-    <t>M.Yogesh</t>
-  </si>
-  <si>
-    <t>7382410987</t>
-  </si>
-  <si>
-    <t>Brijpal Singh</t>
-  </si>
-  <si>
-    <t>singh.brijpal@yahoo.com</t>
-  </si>
-  <si>
-    <t>7668934521</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF9C0006"/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color theme="0"/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -607,159 +476,159 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1005,7 +874,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1014,7 +883,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -1027,11 +896,74 @@
       <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1291,234 +1223,378 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.2857142857143" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.4285714285714" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.8571428571429" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7142857142857" style="1" customWidth="1"/>
+    <col width="25.2857142857143" customWidth="1" style="1" min="1" max="1"/>
+    <col width="28.4285714285714" customWidth="1" style="1" min="2" max="2"/>
+    <col width="22.8571428571429" customWidth="1" style="1" min="3" max="3"/>
+    <col width="25.7142857142857" customWidth="1" style="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Name </t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>Email ID</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phone Number </t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>Manne Yogesh</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>mysc@gmail.com</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>9921232567</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>T. Venkateshwar Reddy</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>venki22@gmail.com</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>8923567112</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>Medical</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>Kunal Shah</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>kunal@outlook.com</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>7834560012</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>Degree</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>Sunil N</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>N.Sunil@gmail.com</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>8845332091</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>Jayvardhan K</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>kjr@gmail.com</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>9492610991</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>Degree</t>
+        </is>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>Jayvardhan K</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>kjr@gmail.com</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>9492610991</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>Medical</t>
+        </is>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Harsha Vardhan </t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>Harsha@outlook.com</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>7382310003</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>Mayur</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>mayur@gmail.com</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>7658901234</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>Devaj M</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>devaj@outlook.com</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>7382314561</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>Degree</t>
+        </is>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>Ranjan Mishra</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>mishra.ranjan@yahoo.in</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>9332567824</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>Medical</t>
+        </is>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bhubaneshwar Jha </t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>jha@gmail.com</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>7332456721</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>Degree</t>
+        </is>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" t="s">
-        <v>11</v>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>M.Yogesh</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>mysc@gmail.com</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>7382410987</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>Medical</t>
+        </is>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>M.Yogesh</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>mysc@gmail.com</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>7382410987</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>Medical</t>
+        </is>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" t="s">
-        <v>15</v>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>Brijpal Singh</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>singh.brijpal@yahoo.com</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>7668934521</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>Degree</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Yuvraj Singh</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>singh.yuvraj@yahoo.com</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>7382510006</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Degree</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Assignment/data.xlsx
+++ b/Assignment/data.xlsx
@@ -1228,7 +1228,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
@@ -1573,24 +1573,46 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="0" t="inlineStr">
         <is>
           <t>Yuvraj Singh</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="0" t="inlineStr">
         <is>
           <t>singh.yuvraj@yahoo.com</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="0" t="inlineStr">
         <is>
           <t>7382510006</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D16" s="0" t="inlineStr">
         <is>
           <t>Degree</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>RaghuVarma</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Raghu@email.com</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>90090009000</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Engineering</t>
         </is>
       </c>
     </row>
